--- a/프로젝트소요예산/오픈소스 하드웨어 구매 사이트.xlsx
+++ b/프로젝트소요예산/오픈소스 하드웨어 구매 사이트.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3137A617-BB98-D647-8B09-B5AB69A7CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB72951-BC17-8F43-8ED5-6E133920372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2080" windowWidth="28300" windowHeight="17440" xr2:uid="{3D4EBD46-67B1-E745-9823-BAB129384042}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jetson nano" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
